--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>495906.4234767244</v>
+        <v>587028.2359746818</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12482428.7691843</v>
+        <v>12535336.02914634</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7045598.283948287</v>
+        <v>7622616.185043051</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9271465.756268924</v>
+        <v>8989940.358341988</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>165.1725371760943</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>28.33592091243828</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>90.06435309531065</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>127.2378420788152</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>136.1854248467215</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -838,7 +840,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>112.7516665411915</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>211.2228407230371</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>239.8079481415045</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="6">
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.90681807664346</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>71.80502600479768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>7.527456720693412</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>187.5255871663197</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>29.00708539155811</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S7" t="n">
-        <v>205.3658819001187</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="U7" t="n">
-        <v>239.8079481415045</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="V7" t="n">
-        <v>132.9267687173775</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1141,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="G8" t="n">
-        <v>333.7132763051898</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>165.1725371760942</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="V9" t="n">
-        <v>202.3430330194681</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>64.33077982535448</v>
       </c>
     </row>
     <row r="10">
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>57.22434433954525</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>77.03226009830536</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.343082173845843</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>187.5255871663195</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>6.632494016571229</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>126.7498226612772</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1546,7 +1548,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346968</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>243.2391485592454</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>42.86209348694693</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1847,10 +1849,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>186.6141597285337</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1901,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>183.6495385389114</v>
       </c>
     </row>
     <row r="18">
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>25.23209651061866</v>
+        <v>84.69473660442819</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2059,10 +2061,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>33.78298043858104</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,10 +2137,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>229.796569204137</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,19 +2241,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2330,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>326.4086157425632</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>120.6088074159619</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2488,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>173.4093838830481</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>36.3270796166963</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2567,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>344.8534296308447</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471498</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>125.9673299442111</v>
       </c>
       <c r="V29" t="n">
-        <v>188.219639431213</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.6898441249717</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>6.380068175847859</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3035,16 +3037,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>257.8029449552871</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>188.2196394312107</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>149.2419515106229</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>142.3844270995957</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3275,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>242.6596397053886</v>
+        <v>94.06042130642867</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3442,7 +3444,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>13.02719212039625</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3484,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3512,10 +3514,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>219.1834685212291</v>
       </c>
       <c r="G38" t="n">
-        <v>300.4616965878247</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>274.5932299693704</v>
+        <v>114.2656173771023</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3740,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>225.7508892923959</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>111.5668757308383</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247734</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3916,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>74.75724224607742</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>18.47345407832201</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>286.7943005364783</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>186.9625385917863</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4043,7 +4045,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>43.54171107304287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>247.3968957734416</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227591</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="C2" t="n">
-        <v>393.8416170062745</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="D2" t="n">
-        <v>204.4218319897901</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985575</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020262</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652786</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652786</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652786</v>
+        <v>738.6222485201466</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652786</v>
+        <v>549.2024635036619</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652786</v>
+        <v>359.7826784871772</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652786</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652786</v>
+        <v>170.3628934706925</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652786</v>
+        <v>170.3628934706925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>411.7481539875434</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>252.5106989820879</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>105.9761410089729</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024202</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546593</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.210157847634</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843266</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389229</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T3" t="n">
-        <v>382.2164318224384</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U3" t="n">
-        <v>382.2164318224384</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V3" t="n">
-        <v>253.6933590155543</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W3" t="n">
-        <v>64.27357399906981</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="X3" t="n">
-        <v>64.27357399906981</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="Y3" t="n">
-        <v>64.27357399906981</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750.1023486652786</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="C4" t="n">
-        <v>750.1023486652786</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="D4" t="n">
-        <v>750.1023486652786</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="E4" t="n">
-        <v>612.5413134665699</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="F4" t="n">
-        <v>465.6513659686595</v>
+        <v>489.3218289035392</v>
       </c>
       <c r="G4" t="n">
-        <v>296.9625425315745</v>
+        <v>320.6330054664542</v>
       </c>
       <c r="H4" t="n">
-        <v>141.9790366408477</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330557</v>
+        <v>38.67250990818523</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594233</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745582</v>
+        <v>279.6026869745584</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692146</v>
+        <v>465.2530182692151</v>
       </c>
       <c r="N4" t="n">
-        <v>633.0454302264744</v>
+        <v>587.3641452287292</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608009</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652794</v>
       </c>
       <c r="W4" t="n">
-        <v>750.1023486652786</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="X4" t="n">
-        <v>750.1023486652786</v>
+        <v>636.2117764014496</v>
       </c>
       <c r="Y4" t="n">
-        <v>750.1023486652786</v>
+        <v>636.2117764014496</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.18463585132036</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="C5" t="n">
-        <v>19.18463585132036</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="D5" t="n">
-        <v>19.18463585132036</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="E5" t="n">
-        <v>19.18463585132036</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="F5" t="n">
-        <v>19.18463585132036</v>
+        <v>204.4218319897901</v>
       </c>
       <c r="G5" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H5" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I5" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J5" t="n">
-        <v>40.41888584470354</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K5" t="n">
-        <v>122.9820404192956</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L5" t="n">
-        <v>262.3106962605481</v>
+        <v>191.874309407919</v>
       </c>
       <c r="M5" t="n">
-        <v>449.0101090859554</v>
+        <v>347.1218190644759</v>
       </c>
       <c r="N5" t="n">
-        <v>643.3443219779374</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O5" t="n">
-        <v>813.5133472948968</v>
+        <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>924.2476725444232</v>
+        <v>734.461172602026</v>
       </c>
       <c r="Q5" t="n">
-        <v>959.231792566018</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R5" t="n">
-        <v>959.2317925660182</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S5" t="n">
-        <v>959.2317925660182</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T5" t="n">
-        <v>745.8753877952736</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U5" t="n">
-        <v>503.6451371472892</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V5" t="n">
-        <v>261.4148864993048</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="W5" t="n">
-        <v>261.4148864993048</v>
+        <v>583.2614020227593</v>
       </c>
       <c r="X5" t="n">
-        <v>261.4148864993048</v>
+        <v>393.8416170062748</v>
       </c>
       <c r="Y5" t="n">
-        <v>261.4148864993048</v>
+        <v>204.4218319897901</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>886.7014632682427</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="C6" t="n">
-        <v>712.2484339871157</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="D6" t="n">
-        <v>563.3140243258645</v>
+        <v>174.2395019787611</v>
       </c>
       <c r="E6" t="n">
-        <v>404.0765693204089</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F6" t="n">
-        <v>257.5420113472939</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G6" t="n">
-        <v>120.1006137065158</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H6" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I6" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J6" t="n">
-        <v>85.30141548166266</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K6" t="n">
-        <v>152.9092351450195</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L6" t="n">
-        <v>290.1388331607133</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M6" t="n">
-        <v>469.6361695153179</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N6" t="n">
-        <v>668.2929111679823</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O6" t="n">
-        <v>827.8052238367427</v>
+        <v>649.2101578476343</v>
       </c>
       <c r="P6" t="n">
-        <v>936.4948513640413</v>
+        <v>739.5989987017056</v>
       </c>
       <c r="Q6" t="n">
-        <v>959.2317925660182</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="R6" t="n">
-        <v>959.2317925660182</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="S6" t="n">
-        <v>959.2317925660182</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="T6" t="n">
-        <v>886.7014632682427</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="U6" t="n">
-        <v>886.7014632682427</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="V6" t="n">
-        <v>886.7014632682427</v>
+        <v>560.6825636487943</v>
       </c>
       <c r="W6" t="n">
-        <v>886.7014632682427</v>
+        <v>553.0790720117302</v>
       </c>
       <c r="X6" t="n">
-        <v>886.7014632682427</v>
+        <v>363.6592869952457</v>
       </c>
       <c r="Y6" t="n">
-        <v>886.7014632682427</v>
+        <v>174.2395019787611</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="C7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="D7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="E7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="F7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="G7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="H7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="I7" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J7" t="n">
-        <v>19.18463585132036</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K7" t="n">
-        <v>63.76336012264349</v>
+        <v>43.17590452428081</v>
       </c>
       <c r="L7" t="n">
-        <v>248.5963550234617</v>
+        <v>216.0634826394158</v>
       </c>
       <c r="M7" t="n">
-        <v>453.8659557426996</v>
+        <v>401.7138139340723</v>
       </c>
       <c r="N7" t="n">
-        <v>659.6893205788037</v>
+        <v>587.3641452287288</v>
       </c>
       <c r="O7" t="n">
-        <v>833.7842159674026</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="P7" t="n">
-        <v>959.2317925660182</v>
+        <v>750.1023486652789</v>
       </c>
       <c r="Q7" t="n">
-        <v>959.2317925660182</v>
+        <v>746.7254979846265</v>
       </c>
       <c r="R7" t="n">
-        <v>828.7538312854208</v>
+        <v>612.5614882768584</v>
       </c>
       <c r="S7" t="n">
-        <v>621.3135465378261</v>
+        <v>423.1417032603738</v>
       </c>
       <c r="T7" t="n">
-        <v>395.6843498501911</v>
+        <v>233.7219182438893</v>
       </c>
       <c r="U7" t="n">
-        <v>153.4540992022067</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="V7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="W7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="X7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.18463585132036</v>
+        <v>44.30213322740468</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1484.628284290968</v>
+        <v>393.8416170062742</v>
       </c>
       <c r="C8" t="n">
-        <v>1484.628284290968</v>
+        <v>393.8416170062742</v>
       </c>
       <c r="D8" t="n">
-        <v>1484.628284290968</v>
+        <v>393.8416170062742</v>
       </c>
       <c r="E8" t="n">
-        <v>1098.840031692724</v>
+        <v>393.8416170062742</v>
       </c>
       <c r="F8" t="n">
-        <v>687.8541269031161</v>
+        <v>204.4218319897899</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678466</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058893</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079177</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644745</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123817</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985568</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020249</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="V8" t="n">
-        <v>1837.396939561082</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="W8" t="n">
-        <v>1484.628284290968</v>
+        <v>583.2614020227585</v>
       </c>
       <c r="X8" t="n">
-        <v>1484.628284290968</v>
+        <v>583.2614020227585</v>
       </c>
       <c r="Y8" t="n">
-        <v>1484.628284290968</v>
+        <v>583.2614020227585</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.2981106200058</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8450813388788</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6732166721721</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772641</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140234</v>
       </c>
       <c r="N9" t="n">
-        <v>1360.79667003785</v>
+        <v>512.5000587546589</v>
       </c>
       <c r="O9" t="n">
-        <v>1652.155916292416</v>
+        <v>649.2101578476334</v>
       </c>
       <c r="P9" t="n">
-        <v>2061.271547415447</v>
+        <v>739.5989987017045</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.745546059887</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="S9" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="T9" t="n">
-        <v>1973.749505378629</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="U9" t="n">
-        <v>1973.749505378629</v>
+        <v>560.6825636487936</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.362603338762</v>
+        <v>371.2627786323093</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.12524661056</v>
+        <v>181.842993615825</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.273746405028</v>
+        <v>181.842993615825</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.513447640074</v>
+        <v>116.8624079336487</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121.179560273755</v>
+        <v>241.4932384301333</v>
       </c>
       <c r="C10" t="n">
-        <v>121.179560273755</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="D10" t="n">
-        <v>121.179560273755</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="E10" t="n">
-        <v>121.179560273755</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="F10" t="n">
-        <v>121.179560273755</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G10" t="n">
-        <v>121.179560273755</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="H10" t="n">
-        <v>121.179560273755</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>15.00204697330556</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>187.8896250884405</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>285.9838492295939</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>471.6341805242502</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>634.3723839608002</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>750.1023486652779</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>746.7254979846255</v>
       </c>
       <c r="R10" t="n">
-        <v>1377.190882465729</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="S10" t="n">
-        <v>1178.011396849955</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="T10" t="n">
-        <v>954.407539542579</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="U10" t="n">
-        <v>665.2812185166025</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="V10" t="n">
-        <v>410.5967303107157</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="W10" t="n">
-        <v>121.179560273755</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="X10" t="n">
-        <v>121.179560273755</v>
+        <v>612.5614882768573</v>
       </c>
       <c r="Y10" t="n">
-        <v>121.179560273755</v>
+        <v>423.141703260373</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796256</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="C11" t="n">
-        <v>552.807938939214</v>
+        <v>1624.63871203243</v>
       </c>
       <c r="D11" t="n">
-        <v>194.5422403324635</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>194.5422403324635</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F11" t="n">
-        <v>194.5422403324635</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180639</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>1624.63871203243</v>
       </c>
     </row>
     <row r="12">
@@ -5109,10 +5111,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
@@ -5121,10 +5123,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5136,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5197,16 +5199,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5218,25 +5220,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="X13" t="n">
         <v>1494.054724415577</v>
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2303.170539913434</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C14" t="n">
-        <v>1934.208022973022</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5318,10 +5320,10 @@
         <v>3325.605821609171</v>
       </c>
       <c r="X14" t="n">
-        <v>3079.909711953368</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y14" t="n">
-        <v>2689.770379977556</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="15">
@@ -5331,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5458,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V16" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W16" t="n">
-        <v>1722.044275313594</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X16" t="n">
-        <v>1494.054724415577</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="Y16" t="n">
-        <v>1273.262145272047</v>
+        <v>1134.908724368016</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2175.400891308157</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C17" t="n">
-        <v>1806.438374367746</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5510,55 +5512,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W17" t="n">
-        <v>3325.605821609171</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X17" t="n">
-        <v>2952.140063348091</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y17" t="n">
-        <v>2562.000731372279</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="18">
@@ -5583,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>504.4781294962293</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="C19" t="n">
-        <v>335.5419465683224</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="D19" t="n">
-        <v>335.5419465683224</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="E19" t="n">
-        <v>335.5419465683224</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="F19" t="n">
-        <v>335.5419465683224</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T19" t="n">
-        <v>1424.011591242373</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U19" t="n">
-        <v>1134.908724368016</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>1134.908724368016</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W19" t="n">
-        <v>1134.908724368016</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X19" t="n">
-        <v>906.9191734699991</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y19" t="n">
-        <v>686.126594326469</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1624.638712032431</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C20" t="n">
-        <v>1255.676195092019</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D20" t="n">
-        <v>897.4104964852686</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E20" t="n">
-        <v>511.6222438870244</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F20" t="n">
-        <v>100.6363390974168</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G20" t="n">
-        <v>100.6363390974168</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>100.6363390974168</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5774,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269322</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008242</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5828,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>66.51211643218342</v>
+        <v>2151.073568494535</v>
       </c>
       <c r="C22" t="n">
-        <v>66.51211643218342</v>
+        <v>1982.137385566628</v>
       </c>
       <c r="D22" t="n">
-        <v>66.51211643218342</v>
+        <v>1832.020746154293</v>
       </c>
       <c r="E22" t="n">
-        <v>66.51211643218342</v>
+        <v>1684.1076525719</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>1537.217705073989</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>1751.913851851648</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>1530.147236421175</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U22" t="n">
-        <v>1241.044369546818</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V22" t="n">
-        <v>986.3598813409312</v>
+        <v>3070.921333403283</v>
       </c>
       <c r="W22" t="n">
-        <v>696.9427113039706</v>
+        <v>2781.504163366323</v>
       </c>
       <c r="X22" t="n">
-        <v>468.9531604059532</v>
+        <v>2553.514612468305</v>
       </c>
       <c r="Y22" t="n">
-        <v>248.1605812624231</v>
+        <v>2332.722033324775</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1590.514489367197</v>
+        <v>2217.803762225666</v>
       </c>
       <c r="C23" t="n">
-        <v>1221.551972426786</v>
+        <v>1848.841245285254</v>
       </c>
       <c r="D23" t="n">
-        <v>863.2862738200351</v>
+        <v>1490.575546678504</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1104.787294080259</v>
       </c>
       <c r="F23" t="n">
-        <v>66.51211643218342</v>
+        <v>693.8013892906517</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>3093.488074938325</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W23" t="n">
-        <v>2740.71941966821</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X23" t="n">
-        <v>2367.25366140713</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="Y23" t="n">
-        <v>1977.114329431319</v>
+        <v>2604.403602289788</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064628</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>680.3679798527295</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C25" t="n">
-        <v>511.4317969248226</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D25" t="n">
-        <v>361.3151575124869</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E25" t="n">
-        <v>213.4020639300938</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F25" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6169,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>1662.30309702476</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T25" t="n">
-        <v>1440.536481594286</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U25" t="n">
-        <v>1151.43361471993</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V25" t="n">
-        <v>1151.43361471993</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W25" t="n">
-        <v>862.0164446829692</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X25" t="n">
-        <v>862.0164446829692</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y25" t="n">
-        <v>862.0164446829692</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1878.169188758593</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C26" t="n">
-        <v>1509.206671818182</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>1509.206671818182</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>1123.418419219938</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>712.43251443033</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2994.542934265599</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W26" t="n">
-        <v>2641.774278995485</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X26" t="n">
-        <v>2268.308520734405</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y26" t="n">
-        <v>1878.169188758593</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J28" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K28" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L28" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M28" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N28" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O28" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P28" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T28" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U28" t="n">
-        <v>1224.739181610489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V28" t="n">
-        <v>970.0546934046018</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W28" t="n">
-        <v>680.6375233676413</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X28" t="n">
-        <v>452.6479724696239</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y28" t="n">
-        <v>231.8553933260938</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="29">
@@ -6437,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1632.511388127729</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C29" t="n">
-        <v>1263.548871187317</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D29" t="n">
-        <v>905.2831725805665</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E29" t="n">
-        <v>519.4949199823222</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F29" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H29" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
         <v>1573.776739001389</v>
@@ -6479,34 +6481,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.605821609172</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="V29" t="n">
-        <v>3135.484973698856</v>
+        <v>3088.075425919891</v>
       </c>
       <c r="W29" t="n">
-        <v>2782.716318428742</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="X29" t="n">
-        <v>2409.250560167662</v>
+        <v>2735.306770649777</v>
       </c>
       <c r="Y29" t="n">
-        <v>2019.11122819185</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N30" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O30" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q30" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R30" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S30" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T30" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W30" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6595,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66.51211643218345</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C31" t="n">
-        <v>66.51211643218345</v>
+        <v>72.95662974112065</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L31" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M31" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N31" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O31" t="n">
         <v>1617.076751502319</v>
@@ -6646,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1735.60866391532</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1513.842048484846</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>970.0546934046023</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>680.6375233676417</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>452.6479724696244</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>231.8553933260943</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1808.800296392464</v>
+        <v>1632.511388127729</v>
       </c>
       <c r="C32" t="n">
-        <v>1439.837779452052</v>
+        <v>1263.548871187317</v>
       </c>
       <c r="D32" t="n">
-        <v>1081.572080845302</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E32" t="n">
-        <v>1081.572080845302</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F32" t="n">
-        <v>821.1650657389509</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G32" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6698,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>3135.484973698856</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2782.716318428742</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2409.250560167662</v>
       </c>
       <c r="Y32" t="n">
-        <v>1808.800296392464</v>
+        <v>2019.11122819185</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6810,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6819,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="34">
@@ -6880,25 +6882,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.60582160917</v>
+        <v>2671.573418792724</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.60582160917</v>
+        <v>2671.573418792724</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.188651572209</v>
+        <v>2671.573418792724</v>
       </c>
       <c r="X34" t="n">
-        <v>2892.365997936254</v>
+        <v>2671.573418792724</v>
       </c>
       <c r="Y34" t="n">
         <v>2671.573418792724</v>
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1881.708680670285</v>
+        <v>1274.53911114974</v>
       </c>
       <c r="C35" t="n">
-        <v>1512.746163729873</v>
+        <v>905.5765942093283</v>
       </c>
       <c r="D35" t="n">
-        <v>1154.480465123123</v>
+        <v>547.3108956025778</v>
       </c>
       <c r="E35" t="n">
-        <v>768.6922125248784</v>
+        <v>161.5226430043336</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2994.542934265601</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2641.774278995486</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X35" t="n">
-        <v>2268.308520734407</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y35" t="n">
-        <v>2268.308520734407</v>
+        <v>1661.138951213862</v>
       </c>
     </row>
     <row r="36">
@@ -7005,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1007.446783179745</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C37" t="n">
-        <v>838.5106002518381</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D37" t="n">
-        <v>688.3939608395024</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E37" t="n">
-        <v>540.4808672571093</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F37" t="n">
-        <v>393.5909197591989</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G37" t="n">
-        <v>225.8880831339178</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H37" t="n">
-        <v>79.67089635177561</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L37" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N37" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O37" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P37" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="V37" t="n">
-        <v>1927.294548088493</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="W37" t="n">
-        <v>1637.877378051532</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X37" t="n">
-        <v>1409.887827153515</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y37" t="n">
-        <v>1189.095248009985</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038043</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="C38" t="n">
-        <v>1822.632236038043</v>
+        <v>1329.547110979147</v>
       </c>
       <c r="D38" t="n">
-        <v>1464.366537431293</v>
+        <v>971.281412372397</v>
       </c>
       <c r="E38" t="n">
-        <v>1078.578284833049</v>
+        <v>585.4931597741527</v>
       </c>
       <c r="F38" t="n">
-        <v>667.5923800434412</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G38" t="n">
         <v>364.0957168234162</v>
@@ -7172,13 +7174,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
@@ -7199,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339057</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077977</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102165</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="39">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1783.876212293104</v>
+        <v>2489.924953962485</v>
       </c>
       <c r="C40" t="n">
-        <v>1614.940029365197</v>
+        <v>2320.988771034578</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952862</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952862</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952862</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952862</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952862</v>
+        <v>1562.149067134516</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952862</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
         <v>1509.946022399797</v>
@@ -7336,16 +7338,16 @@
         <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.49300379717</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396719</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
         <v>2716.058426102583</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022997</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
         <v>3247.995525456656</v>
@@ -7354,28 +7356,28 @@
         <v>3325.605821609171</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="T40" t="n">
-        <v>3235.775364366699</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="U40" t="n">
-        <v>2958.408465407739</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="V40" t="n">
-        <v>2703.723977201852</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="W40" t="n">
-        <v>2414.306807164891</v>
+        <v>3120.355548834272</v>
       </c>
       <c r="X40" t="n">
-        <v>2186.317256266874</v>
+        <v>2892.365997936255</v>
       </c>
       <c r="Y40" t="n">
-        <v>1965.524677123344</v>
+        <v>2671.573418792725</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1594.601034732593</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="C41" t="n">
-        <v>1225.638517792182</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D41" t="n">
-        <v>867.3728191854311</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E41" t="n">
-        <v>481.5845665871869</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V41" t="n">
-        <v>3097.574620303721</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W41" t="n">
-        <v>2744.805965033606</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X41" t="n">
-        <v>2371.340206772526</v>
+        <v>2069.572240784009</v>
       </c>
       <c r="Y41" t="n">
-        <v>1981.200874796715</v>
+        <v>1679.432908808198</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080121</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="43">
@@ -7543,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="C43" t="n">
         <v>922.6774975139006</v>
@@ -7564,19 +7566,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7590,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S43" t="n">
-        <v>1851.782182183364</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1851.782182183364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1562.679315309008</v>
+        <v>1405.351536617805</v>
       </c>
       <c r="V43" t="n">
-        <v>1562.679315309008</v>
+        <v>1150.667048411918</v>
       </c>
       <c r="W43" t="n">
-        <v>1273.262145272047</v>
+        <v>1150.667048411918</v>
       </c>
       <c r="X43" t="n">
-        <v>1273.262145272047</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="Y43" t="n">
-        <v>1273.262145272047</v>
+        <v>922.6774975139006</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1689.318139675982</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1439.837779452052</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1081.572080845301</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>695.7838282470568</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>695.7838282470568</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U44" t="n">
-        <v>3136.754772526559</v>
+        <v>2866.097597267228</v>
       </c>
       <c r="V44" t="n">
-        <v>2805.691885182988</v>
+        <v>2535.034709923657</v>
       </c>
       <c r="W44" t="n">
-        <v>2452.923229912873</v>
+        <v>2182.266054653543</v>
       </c>
       <c r="X44" t="n">
-        <v>2079.457471651794</v>
+        <v>1808.800296392463</v>
       </c>
       <c r="Y44" t="n">
-        <v>1689.318139675982</v>
+        <v>1808.800296392463</v>
       </c>
     </row>
     <row r="45">
@@ -7716,28 +7718,28 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>278.1964793938714</v>
+        <v>2196.817819682431</v>
       </c>
       <c r="C46" t="n">
-        <v>234.2149530574645</v>
+        <v>2027.881636754525</v>
       </c>
       <c r="D46" t="n">
-        <v>234.2149530574645</v>
+        <v>1877.764997342189</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574645</v>
+        <v>1729.851903759796</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574645</v>
+        <v>1729.851903759796</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R46" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>2853.943351862088</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>2599.258863656201</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>2599.258863656201</v>
       </c>
       <c r="X46" t="n">
-        <v>680.6375233676413</v>
+        <v>2599.258863656201</v>
       </c>
       <c r="Y46" t="n">
-        <v>459.8449442241111</v>
+        <v>2378.466284512671</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8143,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457082</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>145.8220995101048</v>
+        <v>99.6793873911696</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>73.01783107116312</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8374,25 +8376,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>49.7041650069893</v>
+        <v>42.56275186471064</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>18.10760906709393</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.89011047839809</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8474,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265846</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>195.8699829942123</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>196.5729450122531</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8611,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402859</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>82.97369176944248</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711113</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8790,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22544,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>217.5613044873863</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046879</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543633</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059421</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22562,10 +22564,10 @@
         <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>288.5579051937841</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871049</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>161.7153815510932</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22629,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>46.09943627046468</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681611</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>105.56274507061</v>
+        <v>45.27499998310543</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459997</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22711,7 +22713,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>10.24853779984764</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22726,7 +22728,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -22765,7 +22767,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>173.7713317953995</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>142.925893521976</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22796,13 +22798,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>225.5722460637383</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938904</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T5" t="n">
-        <v>1.429022391928925</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U5" t="n">
-        <v>11.34683808079609</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V5" t="n">
-        <v>87.94431032863037</v>
+        <v>162.5797212940405</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121493</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897339</v>
       </c>
     </row>
     <row r="6">
@@ -22863,25 +22865,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>45.4458084395867</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183515</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S6" t="n">
-        <v>147.9721212459916</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T6" t="n">
-        <v>123.2143768767156</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310554</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>244.1675264402262</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098464</v>
       </c>
     </row>
     <row r="7">
@@ -22954,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>96.70013437930858</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176904</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22990,16 +22992,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>19.25466862917651</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>36.19408632378037</v>
       </c>
       <c r="U7" t="n">
-        <v>46.45270651659246</v>
+        <v>98.73949432713056</v>
       </c>
       <c r="V7" t="n">
-        <v>119.2108746064505</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971611</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23027,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>219.350458575392</v>
       </c>
       <c r="G8" t="n">
-        <v>78.15745853843703</v>
+        <v>225.5722460637386</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199748</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,22 +23068,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>11.36529914368145</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900532</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>184.0684315413188</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23097,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>48.7788117555066</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>26.91122581714242</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>38.33818124377146</v>
       </c>
       <c r="V9" t="n">
-        <v>30.4575541299572</v>
+        <v>45.2749999831058</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>64.16939599460014</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>141.3519159519499</v>
       </c>
     </row>
     <row r="10">
@@ -23176,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0224767590826</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23191,16 +23193,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>32.12190534877817</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>23.43375830553089</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23227,25 +23229,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577532</v>
       </c>
     </row>
     <row r="11">
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>348.0505476041117</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>284.1719029921762</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -23476,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>75.5034079543403</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>126.4919521192237</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>136.9698866949904</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23735,10 +23737,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>168.0688818921493</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23780,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -23789,16 +23791,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>202.5884001171422</v>
       </c>
     </row>
     <row r="18">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>140.7937117484096</v>
+        <v>81.33107165460004</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>7.793949334344909</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24023,10 +24025,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>97.9556892659979</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24127,19 +24129,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911095</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24175,13 +24177,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24218,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>84.51310991089025</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24254,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
@@ -24263,13 +24265,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>207.143451054173</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24376,10 +24378,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>16.3596414483938</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24443,10 +24445,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>328.9458121543112</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24455,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>66.06829602260876</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24491,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,19 +24651,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>83.32522828944121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24692,10 +24694,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24728,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>125.0278420146909</v>
       </c>
       <c r="V29" t="n">
-        <v>139.532619038922</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696557</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>149.0731007864243</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>62.7755325276913</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>136.96988669499</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>83.32522828944147</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25163,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>164.2164060363229</v>
+        <v>312.8156244352828</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>83.32522828944184</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25372,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>172.2573809594887</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25400,10 +25402,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>187.6925772204823</v>
       </c>
       <c r="G38" t="n">
-        <v>110.4600290656288</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25439,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25457,7 +25459,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,13 +25605,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>11.61860823624244</v>
+        <v>171.9462208285105</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>102.001369177739</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>258.1642249476307</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.0117830853645</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>267.7383841272909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>124.1274251169752</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,10 +25918,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>64.03263336711566</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>123.705110025585</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26041,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>38.81494243217125</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471299.3736439901</v>
+        <v>471299.3736439902</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>515138.8547819282</v>
+        <v>471299.3736439901</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>730204.1836583102</v>
+        <v>471299.37364399</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160454</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>879301.7058160454</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879301.7058160453</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>879301.7058160451</v>
+        <v>879301.7058160452</v>
       </c>
     </row>
   </sheetData>
@@ -26311,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187814</v>
+      </c>
+      <c r="C2" t="n">
         <v>171419.5356187815</v>
       </c>
-      <c r="C2" t="n">
-        <v>186902.5922223888</v>
-      </c>
       <c r="D2" t="n">
-        <v>265569.88022318</v>
+        <v>171419.5356187814</v>
       </c>
       <c r="E2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="F2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="F2" t="n">
-        <v>323947.2440223743</v>
-      </c>
       <c r="G2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223745</v>
       </c>
       <c r="H2" t="n">
         <v>323947.2440223746</v>
       </c>
       <c r="I2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="J2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="K2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="L2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>323947.2440223743</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="L2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="M2" t="n">
-        <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
         <v>323947.2440223745</v>
@@ -26353,7 +26355,7 @@
         <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>57873.5970108225</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>316774.1501411055</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336678</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>13455.80667946153</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>76511.1831096997</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608625</v>
+        <v>160456.4418678775</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26420,13 @@
         <v>11335.86481693334</v>
       </c>
       <c r="C4" t="n">
-        <v>13660.89916846053</v>
+        <v>11335.86481693335</v>
       </c>
       <c r="D4" t="n">
-        <v>17804.0076988212</v>
+        <v>11335.86481693334</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710378</v>
+        <v>10380.3470671038</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>61145.70223437328</v>
+        <v>56985.80041161355</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161353</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26485,16 +26487,16 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
-      </c>
-      <c r="K5" t="n">
-        <v>74306.34056139333</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26506,10 +26508,10 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488259.0321306103</v>
+        <v>-488259.0321306109</v>
       </c>
       <c r="C6" t="n">
-        <v>54222.39380873252</v>
+        <v>103097.8703902349</v>
       </c>
       <c r="D6" t="n">
-        <v>-154207.3594726189</v>
+        <v>103097.8703902345</v>
       </c>
       <c r="E6" t="n">
-        <v>-36770.18937303266</v>
+        <v>-387874.0872397904</v>
       </c>
       <c r="F6" t="n">
-        <v>239260.5563938773</v>
+        <v>239260.5563938771</v>
       </c>
       <c r="G6" t="n">
         <v>239260.5563938774</v>
@@ -26540,25 +26542,25 @@
         <v>239260.5563938775</v>
       </c>
       <c r="I6" t="n">
+        <v>239260.5563938773</v>
+      </c>
+      <c r="J6" t="n">
+        <v>190195.6116653328</v>
+      </c>
+      <c r="K6" t="n">
+        <v>239260.5563938774</v>
+      </c>
+      <c r="L6" t="n">
         <v>239260.5563938775</v>
       </c>
-      <c r="J6" t="n">
-        <v>190195.6116653327</v>
-      </c>
-      <c r="K6" t="n">
-        <v>225804.749714416</v>
-      </c>
-      <c r="L6" t="n">
-        <v>162749.3732841777</v>
-      </c>
       <c r="M6" t="n">
-        <v>167169.2037777911</v>
+        <v>78804.11452599976</v>
       </c>
       <c r="N6" t="n">
         <v>239260.5563938774</v>
       </c>
       <c r="O6" t="n">
-        <v>239260.5563938773</v>
+        <v>239260.5563938776</v>
       </c>
       <c r="P6" t="n">
         <v>239260.5563938773</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129046</v>
+      </c>
+      <c r="C3" t="n">
         <v>548.4699409129042</v>
       </c>
-      <c r="C3" t="n">
-        <v>593.4761003380646</v>
-      </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129042</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26762,7 +26764,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
         <v>1089.776700593298</v>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>239.8079481415045</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="I4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="I4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022931</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>45.00615942516038</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>260.2345641996195</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803938</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="C4" t="n">
-        <v>52.2823609751849</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>302.3070085846587</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>52.28236097518547</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>302.3070085846581</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761298</v>
+        <v>643.8758682359733</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>52.2823609751849</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>302.3070085846587</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359731</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31123,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936711</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.385833569198248</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H5" t="n">
-        <v>24.43391804055156</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I5" t="n">
-        <v>91.97984867651554</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J5" t="n">
-        <v>202.49464189374</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K5" t="n">
-        <v>303.4869768779019</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L5" t="n">
-        <v>376.5024309712528</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M5" t="n">
-        <v>418.9314987074821</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N5" t="n">
-        <v>425.7102483359667</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O5" t="n">
-        <v>401.9861157822516</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P5" t="n">
-        <v>343.0858495426698</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q5" t="n">
-        <v>257.6431848457574</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411496</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S5" t="n">
-        <v>54.36718245810513</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T5" t="n">
-        <v>10.44398644916533</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.276533498840365</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>12.32862615985301</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I6" t="n">
-        <v>43.95082441182838</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J6" t="n">
-        <v>120.6044214847382</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K6" t="n">
-        <v>206.1321659070427</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L6" t="n">
-        <v>277.170135351282</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M6" t="n">
-        <v>323.4444746842452</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N6" t="n">
-        <v>332.0050874900651</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O6" t="n">
-        <v>303.7197925947075</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P6" t="n">
-        <v>243.7619099671572</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.9483813607456</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R6" t="n">
-        <v>79.25705355080798</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S6" t="n">
-        <v>23.71104985784624</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T6" t="n">
-        <v>5.145325813308313</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08398246702897144</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.070202803888313</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H7" t="n">
-        <v>9.515075838207009</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I7" t="n">
-        <v>32.18391704784128</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J7" t="n">
-        <v>75.66333823490373</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K7" t="n">
-        <v>124.338107579024</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L7" t="n">
-        <v>159.1099695889952</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M7" t="n">
-        <v>167.7591540676925</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N7" t="n">
-        <v>163.770216344109</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O7" t="n">
-        <v>151.2683017714136</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P7" t="n">
-        <v>129.4361645720919</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.61489115104776</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R7" t="n">
-        <v>48.12020970937814</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S7" t="n">
-        <v>18.6507161368536</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T7" t="n">
-        <v>4.572684707522791</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954483</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043114</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655542</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528637</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.950432967289</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470271</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470022</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.5015668622677</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244292</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151091</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974682</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619219</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924574</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.17639234280616</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.61782109590848</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340082</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621735</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405031</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975328</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829652</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292671</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.276266862887</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550071</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.91292641288819</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820366</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390157</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445813</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620011</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.7432551563916</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114189</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276989</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604413</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592432</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784854</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.47102176647907</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181392</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061359</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32570,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H29" t="n">
         <v>44.86703772844668</v>
@@ -33181,40 +33183,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33333,43 +33335,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U31" t="n">
         <v>0.1071911508780295</v>
@@ -33737,7 +33739,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33755,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33992,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.6094444076496</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062394</v>
+        <v>92.63945645062401</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4872848053129</v>
+        <v>123.3445726863779</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.4487373670537</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292135</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L5" t="n">
-        <v>140.7360160012656</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802094</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393758</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O5" t="n">
-        <v>171.8879043605649</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874002</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q5" t="n">
-        <v>35.33749497130796</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>66.78462588923465</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.2907269326837</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L6" t="n">
-        <v>138.6157555714078</v>
+        <v>117.5966053606289</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622268</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N6" t="n">
-        <v>200.6633754067318</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O6" t="n">
-        <v>161.123548150263</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P6" t="n">
-        <v>109.7875025528269</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.96660727472408</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>45.0290144154779</v>
+        <v>28.45844197068205</v>
       </c>
       <c r="L7" t="n">
-        <v>186.6999948493114</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M7" t="n">
-        <v>207.3430310295331</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="N7" t="n">
-        <v>207.9023887233376</v>
+        <v>187.5255871663197</v>
       </c>
       <c r="O7" t="n">
-        <v>175.8534296854533</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P7" t="n">
-        <v>126.7147238369854</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538867938</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788315</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.1840179973018</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197544</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504113</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.403355440581</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.83499656915967</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065958</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781455</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.5966053606284</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755144</v>
       </c>
       <c r="N9" t="n">
-        <v>542.1149567261632</v>
+        <v>175.4858258996319</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848227</v>
       </c>
       <c r="P9" t="n">
-        <v>413.248112245486</v>
+        <v>91.3018594485568</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764987</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410651</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>174.6339172880151</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>99.08507489005392</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>187.5255871663195</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>164.3820236732829</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35580,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37403,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37640,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_16_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587028.2359746818</v>
+        <v>536829.8838681206</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12535336.02914634</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7622616.185043051</v>
+        <v>6759716.467212724</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8989940.358341988</v>
+        <v>9417207.701425299</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H2" t="n">
-        <v>28.33592091243828</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663198</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663198</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -743,16 +743,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>90.06435309531065</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>118.2297801110688</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663198</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>63.2749934433789</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>112.7516665411915</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663197</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663197</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -983,13 +983,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1034,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663197</v>
+        <v>79.17822938833616</v>
       </c>
       <c r="W6" t="n">
-        <v>7.527456720693412</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>187.5255871663197</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663197</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.00708539155811</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1098,31 +1098,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>187.5255871663197</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5255871663197</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>194.5753723431819</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.5255871663195</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>187.5255871663195</v>
+        <v>204.5596938531985</v>
       </c>
       <c r="G8" t="n">
-        <v>187.5255871663195</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>165.1725371760942</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>100.8417573507397</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>187.5255871663195</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
-        <v>187.5255871663195</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>187.5255871663195</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>64.33077982535448</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>57.22434433954525</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1302,10 +1302,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,31 +1335,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>178.6663806161039</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>187.5255871663195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>6.632494016571229</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>131.0573912450687</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>45.28085849688354</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>150.2062474346968</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1624,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>11.26664236074065</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>201.6622187863191</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.86209348694693</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>45.28085849688354</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1824,10 +1824,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1849,19 +1849,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>28.93420885558077</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -1897,10 +1897,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>183.6495385389114</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>84.69473660442819</v>
+        <v>120.6353666620236</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>229.796569204137</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>259.745986536829</v>
       </c>
     </row>
     <row r="21">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>250.9396088230912</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>326.4086157425632</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>24.5470731572499</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>13.02719212039631</v>
+        <v>239.3041977740926</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>36.3270796166963</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>210.0946544764316</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>94.01587853653098</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2733,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>125.9673299442111</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>279.8498136999439</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>6.380068175847859</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.8075344783739</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>228.5394683647115</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>188.2196394312107</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>42.15437852346786</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -3207,7 +3207,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,16 +3243,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>149.2419515106229</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>133.2099892451628</v>
       </c>
       <c r="F35" t="n">
-        <v>94.06042130642867</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,16 +3319,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3438,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,22 +3471,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>201.0130390227254</v>
       </c>
       <c r="W37" t="n">
-        <v>114.2656173771023</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>277.3039539762333</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>219.1834685212291</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3678,10 +3678,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.2656173771023</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>63.72703424640802</v>
       </c>
     </row>
     <row r="41">
@@ -3742,13 +3742,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>153.4696656457188</v>
       </c>
       <c r="X41" t="n">
-        <v>111.5668757308383</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>156.9748953434537</v>
       </c>
       <c r="U43" t="n">
-        <v>18.47345407832201</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3979,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>3.18258553388164</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>286.7943005364783</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4042,10 +4042,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4146,7 +4146,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>247.3968957734416</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>131.6653792309044</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="G2" t="n">
-        <v>170.3628934706925</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678495</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644752</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020262</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201466</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>549.2024635036619</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871772</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="W2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>170.3628934706925</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.6825636487947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C3" t="n">
-        <v>560.6825636487947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>411.7481539875434</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>252.5106989820879</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>105.9761410089729</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024213</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017063</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652794</v>
+        <v>935.4314996918137</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652794</v>
+        <v>738.6224213232513</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652794</v>
+        <v>510.4865753600648</v>
       </c>
       <c r="V3" t="n">
-        <v>560.6825636487947</v>
+        <v>275.3344671283221</v>
       </c>
       <c r="W3" t="n">
-        <v>560.6825636487947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="X3" t="n">
-        <v>560.6825636487947</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="Y3" t="n">
-        <v>560.6825636487947</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E4" t="n">
-        <v>636.2117764014496</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F4" t="n">
-        <v>489.3218289035392</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>320.6330054664542</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>165.6494995757273</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7151088594234</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>279.6026869745584</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>465.2530182692151</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>587.3641452287292</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>750.1023486652794</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652794</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>750.1023486652794</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>750.1023486652794</v>
+        <v>800.1710318001377</v>
       </c>
       <c r="W4" t="n">
-        <v>636.2117764014496</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="X4" t="n">
-        <v>636.2117764014496</v>
+        <v>305.8038243349424</v>
       </c>
       <c r="Y4" t="n">
-        <v>636.2117764014496</v>
+        <v>85.01124519141231</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>204.4218319897901</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>204.4218319897901</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>204.4218319897901</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897901</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897901</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678535</v>
+        <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159059007</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>191.874309407919</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644759</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>509.495204112383</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>649.484525998558</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602026</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>583.2614020227593</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227593</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>393.8416170062748</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
-        <v>204.4218319897901</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174.2395019787611</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="C6" t="n">
-        <v>174.2395019787611</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="D6" t="n">
-        <v>174.2395019787611</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330558</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330558</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024242</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140243</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>694.2029851278862</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>864.141532454616</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017056</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652789</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487943</v>
+        <v>974.8775105228567</v>
       </c>
       <c r="W6" t="n">
-        <v>553.0790720117302</v>
+        <v>720.6401537946551</v>
       </c>
       <c r="X6" t="n">
-        <v>363.6592869952457</v>
+        <v>512.7886535891223</v>
       </c>
       <c r="Y6" t="n">
-        <v>174.2395019787611</v>
+        <v>305.0283548241683</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>44.30213322740468</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>21.09711040012039</v>
       </c>
       <c r="K7" t="n">
-        <v>43.17590452428081</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>216.0634826394158</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>401.7138139340723</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>587.3641452287288</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>750.1023486652789</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652789</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>746.7254979846265</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>612.5614882768584</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>423.1417032603738</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>233.7219182438893</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="U7" t="n">
-        <v>44.30213322740468</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="V7" t="n">
-        <v>44.30213322740468</v>
+        <v>651.5277052719076</v>
       </c>
       <c r="W7" t="n">
-        <v>44.30213322740468</v>
+        <v>651.5277052719076</v>
       </c>
       <c r="X7" t="n">
-        <v>44.30213322740468</v>
+        <v>423.5381543738903</v>
       </c>
       <c r="Y7" t="n">
-        <v>44.30213322740468</v>
+        <v>202.7455752303602</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>393.8416170062742</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>393.8416170062742</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="D8" t="n">
-        <v>393.8416170062742</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="E8" t="n">
-        <v>393.8416170062742</v>
+        <v>673.5774902307835</v>
       </c>
       <c r="F8" t="n">
-        <v>204.4218319897899</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>21.03371160678466</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>80.81213159058893</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>191.8743094079177</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>347.1218190644745</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>509.4952041123817</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>649.4845259985568</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>734.4611726020249</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>750.1023486652779</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>583.2614020227585</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>583.2614020227585</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>583.2614020227585</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>116.8624079336487</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>116.8624079336487</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>116.8624079336487</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>116.8624079336487</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>116.8624079336487</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>116.8624079336487</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>15.00204697330556</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>15.00204697330556</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>67.13418877024196</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L9" t="n">
-        <v>183.5548280772641</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M9" t="n">
-        <v>338.7690911140234</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N9" t="n">
-        <v>512.5000587546589</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O9" t="n">
-        <v>649.2101578476334</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P9" t="n">
-        <v>739.5989987017045</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>750.1023486652779</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>750.1023486652779</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>750.1023486652779</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>560.6825636487936</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>371.2627786323093</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>181.842993615825</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>181.842993615825</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>116.8624079336487</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>241.4932384301333</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C10" t="n">
-        <v>183.6908704103906</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>183.6908704103906</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>183.6908704103906</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>183.6908704103906</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>15.00204697330556</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>15.00204697330556</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>15.00204697330556</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>187.8896250884405</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>285.9838492295939</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>471.6341805242502</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>634.3723839608002</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>750.1023486652779</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>746.7254979846255</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>612.5614882768573</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>612.5614882768573</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>612.5614882768573</v>
+        <v>1259.34628070294</v>
       </c>
       <c r="U10" t="n">
-        <v>612.5614882768573</v>
+        <v>970.2279432067783</v>
       </c>
       <c r="V10" t="n">
-        <v>612.5614882768573</v>
+        <v>715.5434550008914</v>
       </c>
       <c r="W10" t="n">
-        <v>612.5614882768573</v>
+        <v>426.1262849639308</v>
       </c>
       <c r="X10" t="n">
-        <v>612.5614882768573</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.141703260373</v>
+        <v>198.1367340659135</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1624.63871203243</v>
+        <v>1179.52858457759</v>
       </c>
       <c r="C11" t="n">
-        <v>1624.63871203243</v>
+        <v>810.5660676371781</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>452.3003690304276</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S11" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V11" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W11" t="n">
-        <v>2388.243802269322</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X11" t="n">
-        <v>2014.778044008242</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y11" t="n">
-        <v>1624.63871203243</v>
+        <v>1566.128424641711</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>703.3872246129079</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>553.2705852005721</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>405.357491618179</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>258.4675441202686</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J13" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U13" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V13" t="n">
-        <v>1645.778206672847</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W13" t="n">
-        <v>1645.778206672847</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2345.167438673965</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>1289.73917080407</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>903.9509182058255</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>492.9650134162179</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>77.89256326121438</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>77.89256326121438</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>3325.605821609171</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X14" t="n">
-        <v>3121.906610713899</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y14" t="n">
-        <v>2731.767278738087</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="15">
@@ -5333,43 +5333,43 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
         <v>2096.912393410638</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>703.3872246129079</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>553.2705852005721</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>405.357491618179</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>258.4675441202686</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>872.3234075408147</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1959.379186075721</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C17" t="n">
-        <v>1590.416669135309</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D17" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
@@ -5545,22 +5545,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U17" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2884.252265792696</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W17" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X17" t="n">
-        <v>2531.483610522581</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y17" t="n">
-        <v>2345.979026139843</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="18">
@@ -5585,16 +5585,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.0623554265553</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="C19" t="n">
-        <v>152.0623554265553</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="D19" t="n">
-        <v>152.0623554265553</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="E19" t="n">
-        <v>152.0623554265553</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="F19" t="n">
-        <v>152.0623554265553</v>
+        <v>188.3660221513992</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V19" t="n">
-        <v>1071.910120335303</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W19" t="n">
-        <v>782.4929502983425</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X19" t="n">
-        <v>554.5033994003252</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y19" t="n">
-        <v>333.710820256795</v>
+        <v>370.0144869816389</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>66.5121164321834</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
         <v>66.5121164321834</v>
@@ -5755,10 +5755,10 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
         <v>1573.776739001389</v>
@@ -5770,7 +5770,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
@@ -5788,16 +5788,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V20" t="n">
-        <v>3093.488074938325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W20" t="n">
-        <v>2740.71941966821</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="X20" t="n">
-        <v>2367.25366140713</v>
+        <v>2952.14006334809</v>
       </c>
       <c r="Y20" t="n">
-        <v>1977.114329431319</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2151.073568494535</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.137385566628</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D22" t="n">
-        <v>1832.020746154293</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E22" t="n">
-        <v>1684.1076525719</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F22" t="n">
-        <v>1537.217705073989</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G22" t="n">
-        <v>1464.823389952861</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H22" t="n">
-        <v>1464.823389952861</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V22" t="n">
-        <v>3070.921333403283</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W22" t="n">
-        <v>2781.504163366323</v>
+        <v>1005.683207932402</v>
       </c>
       <c r="X22" t="n">
-        <v>2553.514612468305</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="Y22" t="n">
-        <v>2332.722033324775</v>
+        <v>777.6936570343842</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2217.803762225666</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C23" t="n">
-        <v>1848.841245285254</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D23" t="n">
-        <v>1490.575546678504</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E23" t="n">
-        <v>1104.787294080259</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F23" t="n">
-        <v>693.8013892906517</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
         <v>66.5121164321834</v>
@@ -6001,13 +6001,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6022,19 +6022,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265599</v>
+        <v>3047.280321491845</v>
       </c>
       <c r="W23" t="n">
-        <v>2994.542934265599</v>
+        <v>2694.511666221731</v>
       </c>
       <c r="X23" t="n">
-        <v>2994.542934265599</v>
+        <v>2321.045907960651</v>
       </c>
       <c r="Y23" t="n">
-        <v>2604.403602289788</v>
+        <v>1930.906575984839</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="25">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>994.2880032601528</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="C25" t="n">
-        <v>825.3518203322459</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="D25" t="n">
         <v>675.2351809199101</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V25" t="n">
-        <v>1914.135768168901</v>
+        <v>1084.873196648167</v>
       </c>
       <c r="W25" t="n">
-        <v>1624.71859813194</v>
+        <v>1084.873196648167</v>
       </c>
       <c r="X25" t="n">
-        <v>1396.729047233923</v>
+        <v>856.8836457501499</v>
       </c>
       <c r="Y25" t="n">
-        <v>1175.936468090393</v>
+        <v>856.8836457501499</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2012.898941548398</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2755.806928794324</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W26" t="n">
-        <v>2403.03827352421</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="X26" t="n">
-        <v>2403.03827352421</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y26" t="n">
-        <v>2012.898941548398</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="27">
@@ -6281,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I27" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N27" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P27" t="n">
         <v>2407.411984886741</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2489.924953962485</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C28" t="n">
-        <v>2320.988771034578</v>
+        <v>475.3976737148905</v>
       </c>
       <c r="D28" t="n">
-        <v>2170.872131622242</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E28" t="n">
-        <v>2022.959038039849</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F28" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G28" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H28" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.605821609171</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V28" t="n">
-        <v>3325.605821609171</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W28" t="n">
-        <v>3120.355548834272</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X28" t="n">
-        <v>2892.365997936255</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y28" t="n">
-        <v>2671.573418792725</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2345.167438673965</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C29" t="n">
-        <v>1976.204921733553</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D29" t="n">
-        <v>1617.939223126803</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E29" t="n">
-        <v>1232.150970528558</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F29" t="n">
-        <v>821.1650657389509</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G29" t="n">
         <v>406.0926155839475</v>
@@ -6460,19 +6460,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6487,28 +6487,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3088.075425919891</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>3088.075425919891</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W29" t="n">
-        <v>2735.306770649777</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X29" t="n">
-        <v>2735.306770649777</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y29" t="n">
-        <v>2345.167438673965</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="30">
@@ -6518,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K30" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>241.8928126690276</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="C31" t="n">
-        <v>72.95662974112065</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D31" t="n">
-        <v>66.51211643218342</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6657,16 +6657,16 @@
         <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1161.740577577775</v>
+        <v>1296.417455199446</v>
       </c>
       <c r="W31" t="n">
-        <v>872.3234075408147</v>
+        <v>1007.000285162486</v>
       </c>
       <c r="X31" t="n">
-        <v>644.3338566427974</v>
+        <v>1007.000285162486</v>
       </c>
       <c r="Y31" t="n">
-        <v>423.5412774992673</v>
+        <v>1007.000285162486</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1632.511388127729</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C32" t="n">
-        <v>1263.548871187317</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D32" t="n">
-        <v>905.2831725805665</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>519.4949199823222</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>108.5090151927147</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I32" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6733,19 +6733,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>3135.484973698856</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>3135.484973698856</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W32" t="n">
-        <v>2782.716318428742</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X32" t="n">
-        <v>2409.250560167662</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y32" t="n">
-        <v>2019.11122819185</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
         <v>66.5121164321834</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962484</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034577</v>
+        <v>573.1289595786776</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622242</v>
+        <v>423.0123201663419</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.959038039849</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.069090541939</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916658</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193524</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.32286476305</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>2671.573418792724</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>2671.573418792724</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>2671.573418792724</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="X34" t="n">
-        <v>2671.573418792724</v>
+        <v>742.0651425065845</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792724</v>
+        <v>742.0651425065845</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1274.53911114974</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C35" t="n">
-        <v>905.5765942093283</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D35" t="n">
-        <v>547.3108956025778</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E35" t="n">
-        <v>161.5226430043336</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W35" t="n">
-        <v>2424.744041450753</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X35" t="n">
-        <v>2051.278283189673</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y35" t="n">
-        <v>1661.138951213862</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.924953962485</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034578</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3235.775364366698</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>3235.775364366698</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>3235.775364366698</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>3235.775364366698</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W37" t="n">
-        <v>3120.355548834272</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X37" t="n">
-        <v>2892.365997936255</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y37" t="n">
-        <v>2671.573418792725</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1698.509627919559</v>
+        <v>1969.423143692379</v>
       </c>
       <c r="C38" t="n">
-        <v>1329.547110979147</v>
+        <v>1600.460626751967</v>
       </c>
       <c r="D38" t="n">
-        <v>971.281412372397</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>585.4931597741527</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2746.162315732312</v>
       </c>
       <c r="Y38" t="n">
-        <v>1698.509627919559</v>
+        <v>2356.022983756501</v>
       </c>
     </row>
     <row r="39">
@@ -7250,7 +7250,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2489.924953962485</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>2320.988771034578</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>1562.149067134516</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399797</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U40" t="n">
-        <v>3120.355548834272</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V40" t="n">
-        <v>3120.355548834272</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W40" t="n">
-        <v>3120.355548834272</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X40" t="n">
-        <v>2892.365997936255</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y40" t="n">
-        <v>2671.573418792725</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1292.833068744076</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1292.833068744076</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
         <v>934.5673701373257</v>
@@ -7408,13 +7408,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,7 +7423,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939507</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>2866.097597267228</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V41" t="n">
-        <v>2535.034709923657</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W41" t="n">
-        <v>2182.266054653543</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>2069.572240784009</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>1679.432908808198</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>922.6774975139006</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H43" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
         <v>111.6347488791189</v>
@@ -7599,22 +7599,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1487.217706325924</v>
       </c>
       <c r="U43" t="n">
-        <v>1405.351536617805</v>
+        <v>1487.217706325924</v>
       </c>
       <c r="V43" t="n">
-        <v>1150.667048411918</v>
+        <v>1232.533218120037</v>
       </c>
       <c r="W43" t="n">
-        <v>1150.667048411918</v>
+        <v>943.1160480830762</v>
       </c>
       <c r="X43" t="n">
-        <v>922.6774975139006</v>
+        <v>715.1264971850588</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.6774975139006</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1808.800296392463</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C44" t="n">
-        <v>1439.837779452052</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D44" t="n">
-        <v>1081.572080845301</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>695.7838282470568</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>695.7838282470568</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7660,40 +7660,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267228</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923657</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653543</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392463</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y44" t="n">
-        <v>1808.800296392463</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228011</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X45" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2196.817819682431</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C46" t="n">
-        <v>2027.881636754525</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D46" t="n">
-        <v>1877.764997342189</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E46" t="n">
-        <v>1729.851903759796</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F46" t="n">
-        <v>1729.851903759796</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G46" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H46" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L46" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N46" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O46" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P46" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>3103.839206178696</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>2853.943351862088</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V46" t="n">
-        <v>2599.258863656201</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W46" t="n">
-        <v>2599.258863656201</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X46" t="n">
-        <v>2599.258863656201</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y46" t="n">
-        <v>2378.466284512671</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8145,16 +8145,16 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>99.6793873911696</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709386</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265846</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544048</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>45.78351343583188</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8376,22 +8376,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>42.56275186471064</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457083</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711116</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709393</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>15.37922103265846</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,16 +8613,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>14.10430989402859</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>82.97369176944248</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>163.8604018711113</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H2" t="n">
-        <v>288.5579051937841</v>
+        <v>81.9144471239415</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,19 +22597,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871049</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038151</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510932</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -22631,22 +22631,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>46.09943627046468</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>28.92015530112998</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310543</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>116.5569867385584</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>173.7713317953995</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22795,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637383</v>
+        <v>180.5549891403835</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900532</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>162.5797212940405</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>182.2055135121493</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897339</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>48.7788117555066</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714242</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310554</v>
+        <v>153.6223577610891</v>
       </c>
       <c r="W6" t="n">
-        <v>244.1675264402262</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>18.24739803715775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318196</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>96.70013437930858</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553089</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>19.25466862917651</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>36.19408632378037</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>98.73949432713056</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>57.56227098064608</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2082544971611</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,19 +23029,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>219.350458575392</v>
+        <v>202.3163518885129</v>
       </c>
       <c r="G8" t="n">
-        <v>225.5722460637386</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>316.8938261062223</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>125.4713171199748</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>158.7758131900532</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>213.4438810562068</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1692605650303</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>184.0684315413188</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>26.91122581714242</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.33818124377146</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>45.2749999831058</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>64.16939599460014</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>141.3519159519499</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23178,10 +23178,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>110.0224767590826</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>153.4336708318196</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>125.7072197708667</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
-        <v>23.43375830553089</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>206.7802557954962</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.7196734901001</v>
+        <v>42.08231538110803</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2650814934503</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>31.05906618577532</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>348.0505476041117</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>255.1805474109849</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>120.7449497621447</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>75.5034079543403</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23497,7 +23497,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>30.3102874121853</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>168.06888189215</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949904</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>120.7449497621447</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23737,19 +23737,19 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>325.7488327651022</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>202.5884001171422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>81.33107165460004</v>
+        <v>45.39044159700458</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23983,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24028,16 +24028,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>97.9556892659979</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>126.4919521192245</v>
       </c>
     </row>
     <row r="21">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>94.35543628911095</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>35.58338951349981</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>84.51310991089025</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,16 +24262,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>303.205185312885</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>239.1104512034317</v>
+        <v>12.83344554973542</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>328.9458121543112</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>159.6364462020374</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>54.59959448168138</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>125.0278420146909</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>106.3881249561097</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.3301088454541</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>154.1943732987691</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,10 +24973,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>62.7755325276913</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>104.2795841231013</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,16 +25131,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>136.96988669499</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25162,10 +25162,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>248.7203808270989</v>
       </c>
       <c r="F35" t="n">
-        <v>312.8156244352828</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,16 +25207,16 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,22 +25359,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>51.12460430110264</v>
       </c>
       <c r="W37" t="n">
-        <v>172.2573809594887</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>77.37908764444967</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>187.6925772204823</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -25605,19 +25605,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>171.9462208285105</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.8576191056868</v>
       </c>
     </row>
     <row r="41">
@@ -25630,13 +25630,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>195.7713030716942</v>
       </c>
       <c r="X41" t="n">
-        <v>258.1642249476307</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>62.57405393271549</v>
       </c>
       <c r="U43" t="n">
-        <v>267.7383841272909</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>362.0903062371259</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>124.1274251169752</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>38.81494243217125</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>94.04427615813279</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>471299.3736439902</v>
+        <v>534429.9763591597</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>471299.3736439901</v>
+        <v>534429.9763591598</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>471299.37364399</v>
+        <v>799493.8452023976</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>879301.7058160454</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160454</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160449</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>879301.7058160452</v>
+        <v>879301.7058160451</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187814</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187815</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="D2" t="n">
-        <v>171419.5356187814</v>
+        <v>290673.0489695932</v>
       </c>
       <c r="E2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="G2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="G2" t="n">
-        <v>323947.2440223745</v>
-      </c>
       <c r="H2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="I2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="J2" t="n">
-        <v>323947.2440223745</v>
-      </c>
       <c r="K2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="L2" t="n">
+        <v>323947.2440223743</v>
+      </c>
+      <c r="M2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="L2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>323947.2440223743</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223745</v>
       </c>
       <c r="O2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223744</v>
+        <v>323947.2440223746</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>391128.3638059436</v>
       </c>
       <c r="E3" t="n">
-        <v>627134.6436336678</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>68999.15441911416</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>95382.64613756974</v>
       </c>
       <c r="M3" t="n">
-        <v>160456.4418678775</v>
+        <v>47552.26579341491</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11335.86481693334</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="C4" t="n">
-        <v>11335.86481693335</v>
+        <v>14543.87419713278</v>
       </c>
       <c r="D4" t="n">
-        <v>11335.86481693334</v>
+        <v>19788.00270570974</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.3470671038</v>
+        <v>10380.34706710378</v>
       </c>
       <c r="F4" t="n">
         <v>10380.34706710378</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161355</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>56985.80041161353</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="L5" t="n">
         <v>74306.34056139328</v>
@@ -26505,13 +26505,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="O5" t="n">
         <v>74306.3405613933</v>
       </c>
-      <c r="O5" t="n">
-        <v>74306.34056139327</v>
-      </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488259.0321306109</v>
+        <v>-574239.1210420866</v>
       </c>
       <c r="C6" t="n">
-        <v>103097.8703902349</v>
+        <v>105848.8595491063</v>
       </c>
       <c r="D6" t="n">
-        <v>103097.8703902345</v>
+        <v>-218408.5527037965</v>
       </c>
       <c r="E6" t="n">
-        <v>-387874.0872397904</v>
+        <v>53711.38727862584</v>
       </c>
       <c r="F6" t="n">
-        <v>239260.5563938771</v>
+        <v>235784.3670958164</v>
       </c>
       <c r="G6" t="n">
-        <v>239260.5563938774</v>
+        <v>235784.3670958163</v>
       </c>
       <c r="H6" t="n">
-        <v>239260.5563938775</v>
+        <v>235784.3670958162</v>
       </c>
       <c r="I6" t="n">
-        <v>239260.5563938773</v>
+        <v>235784.3670958162</v>
       </c>
       <c r="J6" t="n">
-        <v>190195.6116653328</v>
+        <v>166785.2126767022</v>
       </c>
       <c r="K6" t="n">
-        <v>239260.5563938774</v>
+        <v>235784.3670958162</v>
       </c>
       <c r="L6" t="n">
-        <v>239260.5563938775</v>
+        <v>140401.7209582464</v>
       </c>
       <c r="M6" t="n">
-        <v>78804.11452599976</v>
+        <v>188232.1013024014</v>
       </c>
       <c r="N6" t="n">
-        <v>239260.5563938774</v>
+        <v>235784.3670958162</v>
       </c>
       <c r="O6" t="n">
-        <v>239260.5563938776</v>
+        <v>235784.3670958165</v>
       </c>
       <c r="P6" t="n">
-        <v>239260.5563938773</v>
+        <v>235784.3670958163</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129042</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>548.4699409129042</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663197</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>187.5255871663195</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="F4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022925</v>
@@ -26813,25 +26813,25 @@
         <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="N4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="O4" t="n">
         <v>831.4014554022926</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="O4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="P4" t="n">
-        <v>831.4014554022924</v>
       </c>
     </row>
   </sheetData>
@@ -26959,49 +26959,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>320.0098783480611</v>
       </c>
       <c r="E3" t="n">
-        <v>541.3067596803938</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663198</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="E4" t="n">
-        <v>643.8758682359731</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>263.7138800015065</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359733</v>
+        <v>190.816623302254</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663198</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>376.8709520985327</v>
       </c>
       <c r="M4" t="n">
-        <v>643.8758682359731</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936711</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954483</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043114</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655542</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528637</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>347.950432967289</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470271</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622677</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244292</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974682</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619219</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924574</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435304</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590848</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340082</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621735</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405031</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829652</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292671</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>225.276266862887</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550071</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820366</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445813</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620011</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114189</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276989</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604413</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592432</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784854</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647907</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181392</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.204904285077</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>22.58097600954483</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>85.00457245043114</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>187.1384950655542</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>280.4720934528637</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>347.950432967289</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>387.1618995470271</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>393.4265838470022</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>371.5015668622677</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>317.0679923244292</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>238.1048576151091</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>138.5038187974682</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>50.24425639619219</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>9.651968507924574</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.17639234280616</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.179727797435304</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>11.39368688575675</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>40.61782109590848</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>111.4584056340082</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>190.5001680621735</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>256.1509851405031</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>298.9161177975328</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>306.8275379829652</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>280.6872536292671</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>225.276266862887</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.5912184936714</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>73.24660833550071</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>21.91292641288819</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>4.755130902820366</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9890441557445813</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>8.793501675620011</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>29.7432551563916</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>69.92542181114189</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>114.9089482765068</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>147.0438920276989</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>155.0371670682165</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>151.3507297604413</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>139.7968957592432</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>119.6203949820537</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.81896107784854</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>44.47102176647907</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>17.23634224147602</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>4.225915938181392</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746405</v>
       </c>
       <c r="Q20" t="n">
         <v>473.099994678169</v>
@@ -32563,7 +32563,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
         <v>557.708647897025</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32800,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33274,7 +33274,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
         <v>557.708647897025</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I44" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O45" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.6094444076496</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062401</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663198</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>123.3445726863779</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867938</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788315</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973018</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197544</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>141.403355440581</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915967</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065958</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781455</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606289</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755144</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996319</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>91.3018594485568</v>
+        <v>164.0235134695728</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440764987</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,25 +35096,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>28.45844197068205</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880151</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663197</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663197</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>164.3820236732829</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.092590538867938</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>60.38224240788315</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>112.1840179973018</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>156.8156663197544</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>164.0135202504113</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>141.403355440581</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>85.83499656915967</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.79916774065958</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>52.65872908781455</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>117.5966053606284</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M9" t="n">
-        <v>156.7820838755144</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>175.4858258996319</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>138.0910091848227</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>91.3018594485568</v>
+        <v>436.2707275254367</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.60944440764987</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>174.6339172880151</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>99.08507489005392</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>187.5255871663195</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>164.3820236732829</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>116.8989542469472</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36211,7 +36211,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
         <v>415.1124034525806</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36922,7 +36922,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
         <v>415.1124034525806</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597746</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
